--- a/data/orientações_Doutorandos.xlsx
+++ b/data/orientações_Doutorandos.xlsx
@@ -1110,7 +1110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,28 +1138,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2022</v>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>LEÃO FILHO, E. S.. A querela do Padroado Imperial brasileiro: da Constituição de 1824 à bula Praeclara Portugalliae de 1827. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Isabella Santos Pinheiro</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>Ana Beatriz Pestana Gomes.
 						O teatro como ferramenta artística e política no Movimento dos Trabalhadores Rurais Sem Terra (MST).
@@ -1168,16 +1153,16 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B3" t="n">
         <v>2022</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Jorge Luiz de Oliveira Guerreiro.
 						O estabelecimento de Guadalupe como bairro através da Ação Federal Fundação da Casa Popular e a construção do Núcleo Residencial Carmela Dutra: os IGLUS.
@@ -1186,16 +1171,16 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B4" t="n">
         <v>2021</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Lidiane Carvalho de Souza Pimenta.
 						Representações do cotidiano carioca na obra de de João do Rio: uma narrativa sobre o Rio de Janeiro do século XX.
@@ -1204,16 +1189,16 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B5" t="n">
         <v>2021</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Larah Giffoni Lescura Alexandre.
 						As soldaderas e o seu legado para a comunidade feminina mexicana.
@@ -1222,16 +1207,16 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B6" t="n">
         <v>2021</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Cristiano Nogueira de Oliveira.
 						Desigualdade racial: um panorama sobre o acesso da população preta ao ensino.
@@ -1240,16 +1225,16 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B7" t="n">
         <v>2024</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Jackelayne Gomes da Silva.
 						A Iconografia do Apocalipse: o Diabo como protagonista do Mal da Idade Média.
@@ -1258,16 +1243,16 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B8" t="n">
         <v>2022</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Muryel Menezes da Fonseca.
 						A representação da Rainha Católica Isabel I de Castela no seriado televisivo Isabel.
@@ -1276,16 +1261,16 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Millena Souza Farias</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B9" t="n">
         <v>2023</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Aline Pereira de Oliveira Paula.
 						Os arquivos pessoais como fontes: o fundo documental do físico Fernando de Souza Barros e a questão da construção de usinas nucleares durante o período militar no Brasil.
@@ -1294,16 +1279,16 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Millena Souza Farias</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B10" t="n">
         <v>2021</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Débora Bindes do Carmo Pereira.
 						O Brasil Colonial sobre a ótica do Ensino de História Ambiental: as narrativas dos livros didáticos e paradidáticos (1999-2018).
@@ -1312,16 +1297,16 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Millena Souza Farias</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B11" t="n">
         <v>2021</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Paulo Roberto Sampaio.
 						A construção do Direito Trabalhista Feminino na Era Vargas: uma análise histórica sobre a legislação (1917-1945).
@@ -1330,16 +1315,16 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Millena Souza Farias</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B12" t="n">
         <v>2021</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Daiane Caterine de Souza Carvalho.
 						Os discursos de Getúlio Vargas e A Nova Política do Brasil, de José Olympio: panorama da industrialização na política varguista (1930-1942).
@@ -1348,16 +1333,16 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Millena Souza Farias</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B13" t="n">
         <v>2021</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Milena Pereira Brum da Silva.
 						X-MEN E QUESTÕES SOCIAIS:  um estudo sobre o lançamento da revista de história em quadrinhos X-men (1963) e a luta norte-americana pelos direitos civis na década de 1960.
